--- a/docss/trend/norway/E_neuron.xlsx
+++ b/docss/trend/norway/E_neuron.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\norway\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\norway\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="A1:F18"/>
+      <selection activeCell="B1" sqref="B1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,216 +1599,188 @@
       <c r="D1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2002</v>
       </c>
       <c r="B2" s="6">
-        <v>1.9126020222902298</v>
+        <v>1.913</v>
       </c>
       <c r="C2" s="6">
-        <v>2.5524140521883965</v>
+        <v>2.552</v>
       </c>
       <c r="D2" s="6">
-        <v>1.3552066050469875</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+        <v>1.355</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2003</v>
       </c>
       <c r="B3" s="6">
-        <v>1.4590486884117126</v>
+        <v>1.4590000000000001</v>
       </c>
       <c r="C3" s="6">
-        <v>1.7179062813520432</v>
+        <v>1.718</v>
       </c>
       <c r="D3" s="6">
-        <v>1.2094732448458672</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+        <v>1.2090000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2004</v>
       </c>
       <c r="B4" s="6">
-        <v>1.9628448970615864</v>
+        <v>1.9630000000000001</v>
       </c>
       <c r="C4" s="6">
-        <v>2.4456117823719978</v>
+        <v>2.4460000000000002</v>
       </c>
       <c r="D4" s="6">
-        <v>1.5190945528447628</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+        <v>1.5189999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2005</v>
       </c>
       <c r="B5" s="6">
-        <v>1.7690611574798822</v>
+        <v>1.7689999999999999</v>
       </c>
       <c r="C5" s="6">
-        <v>2.1678554974496365</v>
+        <v>2.1680000000000001</v>
       </c>
       <c r="D5" s="6">
-        <v>1.3689834028482437</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+        <v>1.369</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2006</v>
       </c>
       <c r="B6" s="6">
-        <v>1.8391346801072359</v>
+        <v>1.839</v>
       </c>
       <c r="C6" s="6">
-        <v>1.8774259835481644</v>
+        <v>1.877</v>
       </c>
       <c r="D6" s="6">
-        <v>1.7957356795668602</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+        <v>1.796</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2007</v>
       </c>
       <c r="B7" s="6">
-        <v>1.7947480175644159</v>
+        <v>1.7949999999999999</v>
       </c>
       <c r="C7" s="6">
-        <v>2.0402061119675636</v>
+        <v>2.04</v>
       </c>
       <c r="D7" s="6">
-        <v>1.583366297185421</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+        <v>1.583</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2008</v>
       </c>
       <c r="B8" s="6">
-        <v>2.1296757739037275</v>
+        <v>2.13</v>
       </c>
       <c r="C8" s="6">
-        <v>2.6207488030195236</v>
+        <v>2.621</v>
       </c>
       <c r="D8" s="6">
-        <v>1.6673990115523338</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+        <v>1.667</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2009</v>
       </c>
       <c r="B9" s="6">
-        <v>1.8024854827672243</v>
+        <v>1.802</v>
       </c>
       <c r="C9" s="6">
-        <v>2.1618430316448212</v>
+        <v>2.1619999999999999</v>
       </c>
       <c r="D9" s="6">
-        <v>1.4638472385704517</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+        <v>1.464</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2010</v>
       </c>
       <c r="B10" s="6">
-        <v>1.7176960185170174</v>
+        <v>1.718</v>
       </c>
       <c r="C10" s="6">
-        <v>1.8874751850962639</v>
+        <v>1.887</v>
       </c>
       <c r="D10" s="6">
-        <v>1.5535742938518524</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+        <v>1.554</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2011</v>
       </c>
       <c r="B11" s="6">
-        <v>1.9767320714890957</v>
+        <v>1.9770000000000001</v>
       </c>
       <c r="C11" s="6">
-        <v>2.6600952260196209</v>
+        <v>2.66</v>
       </c>
       <c r="D11" s="6">
-        <v>1.389831256121397</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+        <v>1.39</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2012</v>
       </c>
       <c r="B12" s="6">
-        <v>2.0999583695083857</v>
+        <v>2.1</v>
       </c>
       <c r="C12" s="6">
-        <v>2.2652985006570816</v>
+        <v>2.2650000000000001</v>
       </c>
       <c r="D12" s="6">
-        <v>1.9553931169211864</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+        <v>1.9550000000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2013</v>
       </c>
       <c r="B13" s="6">
-        <v>1.9147332385182381</v>
+        <v>1.915</v>
       </c>
       <c r="C13" s="6">
-        <v>2.3816909715533257</v>
+        <v>2.3820000000000001</v>
       </c>
       <c r="D13" s="6">
-        <v>1.5183149725198746</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+        <v>1.518</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2014</v>
       </c>
       <c r="B14" s="6">
-        <v>1.8272914905101061</v>
+        <v>1.827</v>
       </c>
       <c r="C14" s="6">
-        <v>2.2857250012457371</v>
+        <v>2.286</v>
       </c>
       <c r="D14" s="6">
-        <v>1.4090154357254505</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+        <v>1.409</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
